--- a/resources/data-imports/Items/alchemy-stat-increase.xlsx
+++ b/resources/data-imports/Items/alchemy-stat-increase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="154">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">alchemy_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">specialty_type</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase-stats</t>
   </si>
   <si>
     <t xml:space="preserve">A simple potion good for increasing ones strength.</t>
@@ -551,7 +557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,6 +567,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,10 +595,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS41"/>
+  <dimension ref="A1:BT41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN42" activeCellId="0" sqref="AN42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -597,68 +607,68 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="34.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="19" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,10 +687,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -874,6 +884,9 @@
       </c>
       <c r="BS1" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,43 +897,43 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>100</v>
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>0</v>
+      <c r="AF2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI2" s="1" t="n">
         <v>0</v>
@@ -934,8 +947,8 @@
       <c r="AL2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" s="1" t="n">
-        <v>1</v>
+      <c r="AM2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO2" s="1" t="n">
         <v>1</v>
@@ -943,25 +956,25 @@
       <c r="AP2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR2" s="1" t="n">
-        <v>0</v>
+      <c r="AQ2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT2" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="AW2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ2" s="1" t="n">
+      <c r="AY2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA2" s="1" t="n">
@@ -982,7 +995,7 @@
       <c r="BF2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL2" s="1" t="n">
+      <c r="BG2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM2" s="1" t="n">
@@ -995,6 +1008,9 @@
         <v>0</v>
       </c>
       <c r="BP2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,43 +1022,43 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>131</v>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>131</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="n">
+      <c r="Z3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>0</v>
+      <c r="AF3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>0</v>
@@ -1056,8 +1072,8 @@
       <c r="AL3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" s="1" t="n">
-        <v>1</v>
+      <c r="AM3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO3" s="1" t="n">
         <v>1</v>
@@ -1065,25 +1081,25 @@
       <c r="AP3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR3" s="1" t="n">
-        <v>0</v>
+      <c r="AQ3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1" t="n">
         <v>0.1595</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ3" s="1" t="n">
+      <c r="AY3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA3" s="1" t="n">
@@ -1104,7 +1120,7 @@
       <c r="BF3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL3" s="1" t="n">
+      <c r="BG3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM3" s="1" t="n">
@@ -1117,6 +1133,9 @@
         <v>0</v>
       </c>
       <c r="BP3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,43 +1147,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>171</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>171</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>0</v>
+      <c r="AF4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>0</v>
@@ -1178,8 +1197,8 @@
       <c r="AL4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" s="1" t="n">
-        <v>1</v>
+      <c r="AM4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO4" s="1" t="n">
         <v>1</v>
@@ -1187,25 +1206,25 @@
       <c r="AP4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR4" s="1" t="n">
-        <v>0</v>
+      <c r="AQ4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1" t="n">
         <v>0.1695</v>
       </c>
-      <c r="AW4" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ4" s="1" t="n">
+      <c r="AY4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA4" s="1" t="n">
@@ -1226,7 +1245,7 @@
       <c r="BF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL4" s="1" t="n">
+      <c r="BG4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM4" s="1" t="n">
@@ -1239,6 +1258,9 @@
         <v>0</v>
       </c>
       <c r="BP4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1250,43 +1272,43 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>224</v>
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>224</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>0</v>
+      <c r="AF5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0</v>
@@ -1300,8 +1322,8 @@
       <c r="AL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" s="1" t="n">
-        <v>1</v>
+      <c r="AM5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>1</v>
@@ -1309,25 +1331,25 @@
       <c r="AP5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR5" s="1" t="n">
-        <v>0</v>
+      <c r="AQ5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT5" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1" t="n">
         <v>0.1802</v>
       </c>
-      <c r="AW5" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ5" s="1" t="n">
+      <c r="AY5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA5" s="1" t="n">
@@ -1348,7 +1370,7 @@
       <c r="BF5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL5" s="1" t="n">
+      <c r="BG5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM5" s="1" t="n">
@@ -1361,6 +1383,9 @@
         <v>0</v>
       </c>
       <c r="BP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1372,43 +1397,43 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>292</v>
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>292</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>0</v>
+      <c r="AF6" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0</v>
@@ -1422,8 +1447,8 @@
       <c r="AL6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" s="1" t="n">
-        <v>1</v>
+      <c r="AM6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO6" s="1" t="n">
         <v>1</v>
@@ -1431,25 +1456,25 @@
       <c r="AP6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR6" s="1" t="n">
-        <v>0</v>
+      <c r="AQ6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT6" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1" t="n">
         <v>0.1916</v>
       </c>
-      <c r="AW6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ6" s="1" t="n">
+      <c r="AY6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA6" s="1" t="n">
@@ -1470,7 +1495,7 @@
       <c r="BF6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL6" s="1" t="n">
+      <c r="BG6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM6" s="1" t="n">
@@ -1483,6 +1508,9 @@
         <v>0</v>
       </c>
       <c r="BP6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1494,43 +1522,43 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>382</v>
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>382</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>0</v>
+      <c r="AF7" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI7" s="1" t="n">
         <v>0</v>
@@ -1544,8 +1572,8 @@
       <c r="AL7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" s="1" t="n">
-        <v>1</v>
+      <c r="AM7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO7" s="1" t="n">
         <v>1</v>
@@ -1553,25 +1581,25 @@
       <c r="AP7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR7" s="1" t="n">
-        <v>0</v>
+      <c r="AQ7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1" t="n">
         <v>0.2036</v>
       </c>
-      <c r="AW7" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ7" s="1" t="n">
+      <c r="AY7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA7" s="1" t="n">
@@ -1592,7 +1620,7 @@
       <c r="BF7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL7" s="1" t="n">
+      <c r="BG7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM7" s="1" t="n">
@@ -1605,6 +1633,9 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,43 +1647,43 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>499</v>
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="M8" s="1" t="n">
         <v>499</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>0</v>
+      <c r="AF8" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI8" s="1" t="n">
         <v>0</v>
@@ -1666,8 +1697,8 @@
       <c r="AL8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" s="1" t="n">
-        <v>1</v>
+      <c r="AM8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO8" s="1" t="n">
         <v>1</v>
@@ -1675,25 +1706,25 @@
       <c r="AP8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR8" s="1" t="n">
-        <v>0</v>
+      <c r="AQ8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1" t="n">
         <v>0.2165</v>
       </c>
-      <c r="AW8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ8" s="1" t="n">
+      <c r="AY8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA8" s="1" t="n">
@@ -1714,7 +1745,7 @@
       <c r="BF8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL8" s="1" t="n">
+      <c r="BG8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM8" s="1" t="n">
@@ -1727,6 +1758,9 @@
         <v>0</v>
       </c>
       <c r="BP8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1738,43 +1772,43 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>652</v>
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="M9" s="1" t="n">
         <v>652</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="O9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>0</v>
+      <c r="AF9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI9" s="1" t="n">
         <v>0</v>
@@ -1788,8 +1822,8 @@
       <c r="AL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="1" t="n">
-        <v>1</v>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO9" s="1" t="n">
         <v>1</v>
@@ -1797,25 +1831,25 @@
       <c r="AP9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR9" s="1" t="n">
-        <v>0</v>
+      <c r="AQ9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1" t="n">
         <v>0.2301</v>
       </c>
-      <c r="AW9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="1" t="n">
+      <c r="AY9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA9" s="1" t="n">
@@ -1836,7 +1870,7 @@
       <c r="BF9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL9" s="1" t="n">
+      <c r="BG9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM9" s="1" t="n">
@@ -1849,6 +1883,9 @@
         <v>0</v>
       </c>
       <c r="BP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1860,43 +1897,43 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>853</v>
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>853</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="O10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH10" s="1" t="n">
-        <v>0</v>
+      <c r="AF10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI10" s="1" t="n">
         <v>0</v>
@@ -1910,8 +1947,8 @@
       <c r="AL10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" s="1" t="n">
-        <v>1</v>
+      <c r="AM10" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO10" s="1" t="n">
         <v>1</v>
@@ -1919,25 +1956,25 @@
       <c r="AP10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR10" s="1" t="n">
-        <v>0</v>
+      <c r="AQ10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1" t="n">
         <v>0.2446</v>
       </c>
-      <c r="AW10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ10" s="1" t="n">
+      <c r="AY10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA10" s="1" t="n">
@@ -1958,7 +1995,7 @@
       <c r="BF10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL10" s="1" t="n">
+      <c r="BG10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM10" s="1" t="n">
@@ -1971,6 +2008,9 @@
         <v>0</v>
       </c>
       <c r="BP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1982,43 +2022,43 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>1114</v>
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>1114</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="O11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AD11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH11" s="1" t="n">
-        <v>0</v>
+      <c r="AF11" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0</v>
@@ -2032,8 +2072,8 @@
       <c r="AL11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" s="1" t="n">
-        <v>1</v>
+      <c r="AM11" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO11" s="1" t="n">
         <v>1</v>
@@ -2041,25 +2081,25 @@
       <c r="AP11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR11" s="1" t="n">
-        <v>0</v>
+      <c r="AQ11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT11" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1" t="n">
         <v>0.26</v>
       </c>
-      <c r="AW11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ11" s="1" t="n">
+      <c r="AY11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA11" s="1" t="n">
@@ -2080,7 +2120,7 @@
       <c r="BF11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL11" s="1" t="n">
+      <c r="BG11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM11" s="1" t="n">
@@ -2093,6 +2133,9 @@
         <v>0</v>
       </c>
       <c r="BP11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2104,43 +2147,43 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>1456</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>1456</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1" t="n">
+        <v>1456</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH12" s="1" t="n">
-        <v>0</v>
+      <c r="AF12" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI12" s="1" t="n">
         <v>0</v>
@@ -2154,8 +2197,8 @@
       <c r="AL12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" s="1" t="n">
-        <v>1</v>
+      <c r="AM12" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO12" s="1" t="n">
         <v>1</v>
@@ -2163,25 +2206,25 @@
       <c r="AP12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR12" s="1" t="n">
-        <v>0</v>
+      <c r="AQ12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT12" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1" t="n">
         <v>0.2764</v>
       </c>
-      <c r="AW12" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ12" s="1" t="n">
+      <c r="AY12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA12" s="1" t="n">
@@ -2202,7 +2245,7 @@
       <c r="BF12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL12" s="1" t="n">
+      <c r="BG12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM12" s="1" t="n">
@@ -2215,6 +2258,9 @@
         <v>0</v>
       </c>
       <c r="BP12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2226,43 +2272,43 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>1903</v>
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>1903</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1" t="n">
+        <v>1903</v>
+      </c>
+      <c r="O13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH13" s="1" t="n">
-        <v>0</v>
+      <c r="AF13" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI13" s="1" t="n">
         <v>0</v>
@@ -2276,8 +2322,8 @@
       <c r="AL13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" s="1" t="n">
-        <v>1</v>
+      <c r="AM13" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO13" s="1" t="n">
         <v>1</v>
@@ -2285,25 +2331,25 @@
       <c r="AP13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR13" s="1" t="n">
-        <v>0</v>
+      <c r="AQ13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1" t="n">
         <v>0.2939</v>
       </c>
-      <c r="AW13" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ13" s="1" t="n">
+      <c r="AY13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA13" s="1" t="n">
@@ -2324,7 +2370,7 @@
       <c r="BF13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL13" s="1" t="n">
+      <c r="BG13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM13" s="1" t="n">
@@ -2337,6 +2383,9 @@
         <v>0</v>
       </c>
       <c r="BP13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2348,43 +2397,43 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>2487</v>
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>2487</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1" t="n">
+        <v>2487</v>
+      </c>
+      <c r="O14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH14" s="1" t="n">
-        <v>0</v>
+      <c r="AF14" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI14" s="1" t="n">
         <v>0</v>
@@ -2398,8 +2447,8 @@
       <c r="AL14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" s="1" t="n">
-        <v>1</v>
+      <c r="AM14" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO14" s="1" t="n">
         <v>1</v>
@@ -2407,25 +2456,25 @@
       <c r="AP14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR14" s="1" t="n">
-        <v>0</v>
+      <c r="AQ14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="1" t="n">
         <v>0.3124</v>
       </c>
-      <c r="AW14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ14" s="1" t="n">
+      <c r="AY14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA14" s="1" t="n">
@@ -2446,7 +2495,7 @@
       <c r="BF14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL14" s="1" t="n">
+      <c r="BG14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM14" s="1" t="n">
@@ -2459,6 +2508,9 @@
         <v>0</v>
       </c>
       <c r="BP14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2470,43 +2522,43 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>3251</v>
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="M15" s="1" t="n">
         <v>3251</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1" t="n">
+        <v>3251</v>
+      </c>
+      <c r="O15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH15" s="1" t="n">
-        <v>0</v>
+      <c r="AF15" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI15" s="1" t="n">
         <v>0</v>
@@ -2520,8 +2572,8 @@
       <c r="AL15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" s="1" t="n">
-        <v>1</v>
+      <c r="AM15" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO15" s="1" t="n">
         <v>1</v>
@@ -2529,25 +2581,25 @@
       <c r="AP15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR15" s="1" t="n">
-        <v>0</v>
+      <c r="AQ15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="1" t="n">
         <v>0.3321</v>
       </c>
-      <c r="AW15" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ15" s="1" t="n">
+      <c r="AY15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA15" s="1" t="n">
@@ -2568,7 +2620,7 @@
       <c r="BF15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL15" s="1" t="n">
+      <c r="BG15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM15" s="1" t="n">
@@ -2581,6 +2633,9 @@
         <v>0</v>
       </c>
       <c r="BP15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,43 +2647,43 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>4249</v>
+        <v>73</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="M16" s="1" t="n">
         <v>4249</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1" t="n">
+        <v>4249</v>
+      </c>
+      <c r="O16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="AD16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="AE16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH16" s="1" t="n">
-        <v>0</v>
+      <c r="AF16" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI16" s="1" t="n">
         <v>0</v>
@@ -2642,8 +2697,8 @@
       <c r="AL16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" s="1" t="n">
-        <v>1</v>
+      <c r="AM16" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO16" s="1" t="n">
         <v>1</v>
@@ -2651,25 +2706,25 @@
       <c r="AP16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR16" s="1" t="n">
-        <v>0</v>
+      <c r="AQ16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT16" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="1" t="n">
         <v>0.353</v>
       </c>
-      <c r="AW16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ16" s="1" t="n">
+      <c r="AY16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA16" s="1" t="n">
@@ -2690,7 +2745,7 @@
       <c r="BF16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL16" s="1" t="n">
+      <c r="BG16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM16" s="1" t="n">
@@ -2703,6 +2758,9 @@
         <v>0</v>
       </c>
       <c r="BP16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2714,43 +2772,43 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>5554</v>
+        <v>73</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M17" s="1" t="n">
         <v>5554</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1" t="n">
+        <v>5554</v>
+      </c>
+      <c r="O17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="AD17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH17" s="1" t="n">
-        <v>0</v>
+      <c r="AF17" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI17" s="1" t="n">
         <v>0</v>
@@ -2764,8 +2822,8 @@
       <c r="AL17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" s="1" t="n">
-        <v>1</v>
+      <c r="AM17" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO17" s="1" t="n">
         <v>1</v>
@@ -2773,25 +2831,25 @@
       <c r="AP17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR17" s="1" t="n">
-        <v>0</v>
+      <c r="AQ17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="1" t="n">
         <v>0.3753</v>
       </c>
-      <c r="AW17" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ17" s="1" t="n">
+      <c r="AY17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA17" s="1" t="n">
@@ -2812,7 +2870,7 @@
       <c r="BF17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL17" s="1" t="n">
+      <c r="BG17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM17" s="1" t="n">
@@ -2825,6 +2883,9 @@
         <v>0</v>
       </c>
       <c r="BP17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2836,43 +2897,43 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>7260</v>
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="M18" s="1" t="n">
         <v>7260</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1" t="n">
+        <v>7260</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AD18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="AE18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH18" s="1" t="n">
-        <v>0</v>
+      <c r="AF18" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI18" s="1" t="n">
         <v>0</v>
@@ -2886,8 +2947,8 @@
       <c r="AL18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" s="1" t="n">
-        <v>1</v>
+      <c r="AM18" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO18" s="1" t="n">
         <v>1</v>
@@ -2895,25 +2956,25 @@
       <c r="AP18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR18" s="1" t="n">
-        <v>0</v>
+      <c r="AQ18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT18" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1" t="n">
         <v>0.3989</v>
       </c>
-      <c r="AW18" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ18" s="1" t="n">
+      <c r="AY18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="1" t="n">
@@ -2934,7 +2995,7 @@
       <c r="BF18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL18" s="1" t="n">
+      <c r="BG18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM18" s="1" t="n">
@@ -2947,6 +3008,9 @@
         <v>0</v>
       </c>
       <c r="BP18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2958,43 +3022,43 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>9489</v>
+        <v>73</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M19" s="1" t="n">
         <v>9489</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1" t="n">
+        <v>9489</v>
+      </c>
+      <c r="O19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="AD19" s="1" t="n">
+      <c r="AE19" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="AE19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH19" s="1" t="n">
-        <v>0</v>
+      <c r="AF19" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI19" s="1" t="n">
         <v>0</v>
@@ -3008,8 +3072,8 @@
       <c r="AL19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" s="1" t="n">
-        <v>1</v>
+      <c r="AM19" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO19" s="1" t="n">
         <v>1</v>
@@ -3017,25 +3081,25 @@
       <c r="AP19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR19" s="1" t="n">
-        <v>0</v>
+      <c r="AQ19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT19" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="1" t="n">
         <v>0.4241</v>
       </c>
-      <c r="AW19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ19" s="1" t="n">
+      <c r="AY19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA19" s="1" t="n">
@@ -3056,7 +3120,7 @@
       <c r="BF19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL19" s="1" t="n">
+      <c r="BG19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM19" s="1" t="n">
@@ -3069,6 +3133,9 @@
         <v>0</v>
       </c>
       <c r="BP19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3080,43 +3147,43 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>12400</v>
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="M20" s="1" t="n">
         <v>12400</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1" t="n">
+        <v>12400</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="AD20" s="1" t="n">
+      <c r="AE20" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AE20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>0</v>
+      <c r="AF20" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI20" s="1" t="n">
         <v>0</v>
@@ -3130,8 +3197,8 @@
       <c r="AL20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" s="1" t="n">
-        <v>1</v>
+      <c r="AM20" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO20" s="1" t="n">
         <v>1</v>
@@ -3139,25 +3206,25 @@
       <c r="AP20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR20" s="1" t="n">
-        <v>0</v>
+      <c r="AQ20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT20" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1" t="n">
         <v>0.4508</v>
       </c>
-      <c r="AW20" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="1" t="n">
+      <c r="AY20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA20" s="1" t="n">
@@ -3178,7 +3245,7 @@
       <c r="BF20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL20" s="1" t="n">
+      <c r="BG20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM20" s="1" t="n">
@@ -3191,6 +3258,9 @@
         <v>0</v>
       </c>
       <c r="BP20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,43 +3272,43 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>16200</v>
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M21" s="1" t="n">
         <v>16200</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1" t="n">
+        <v>16200</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AD21" s="1" t="n">
+      <c r="AE21" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>0</v>
+      <c r="AF21" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI21" s="1" t="n">
         <v>0</v>
@@ -3252,8 +3322,8 @@
       <c r="AL21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="1" t="n">
-        <v>1</v>
+      <c r="AM21" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO21" s="1" t="n">
         <v>1</v>
@@ -3261,25 +3331,25 @@
       <c r="AP21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR21" s="1" t="n">
-        <v>0</v>
+      <c r="AQ21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="1" t="n">
         <v>0.4793</v>
       </c>
-      <c r="AW21" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="1" t="n">
+      <c r="AY21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA21" s="1" t="n">
@@ -3300,7 +3370,7 @@
       <c r="BF21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL21" s="1" t="n">
+      <c r="BG21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM21" s="1" t="n">
@@ -3313,6 +3383,9 @@
         <v>0</v>
       </c>
       <c r="BP21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3324,43 +3397,43 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>21200</v>
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="M22" s="1" t="n">
         <v>21200</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="n">
+        <v>21200</v>
+      </c>
+      <c r="O22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="AD22" s="1" t="n">
+      <c r="AE22" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="AE22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH22" s="1" t="n">
-        <v>0</v>
+      <c r="AF22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>0</v>
@@ -3374,8 +3447,8 @@
       <c r="AL22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" s="1" t="n">
-        <v>1</v>
+      <c r="AM22" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO22" s="1" t="n">
         <v>1</v>
@@ -3383,25 +3456,25 @@
       <c r="AP22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR22" s="1" t="n">
-        <v>0</v>
+      <c r="AQ22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT22" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="1" t="n">
         <v>0.5095</v>
       </c>
-      <c r="AW22" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ22" s="1" t="n">
+      <c r="AY22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA22" s="1" t="n">
@@ -3422,7 +3495,7 @@
       <c r="BF22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL22" s="1" t="n">
+      <c r="BG22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM22" s="1" t="n">
@@ -3435,6 +3508,9 @@
         <v>0</v>
       </c>
       <c r="BP22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3446,43 +3522,43 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>27700</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="M23" s="1" t="n">
         <v>27700</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1" t="n">
+        <v>27700</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="AD23" s="1" t="n">
+      <c r="AE23" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AE23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH23" s="1" t="n">
-        <v>0</v>
+      <c r="AF23" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>0</v>
@@ -3496,8 +3572,8 @@
       <c r="AL23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" s="1" t="n">
-        <v>1</v>
+      <c r="AM23" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO23" s="1" t="n">
         <v>1</v>
@@ -3505,25 +3581,25 @@
       <c r="AP23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR23" s="1" t="n">
-        <v>0</v>
+      <c r="AQ23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT23" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="1" t="n">
         <v>0.5416</v>
       </c>
-      <c r="AW23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ23" s="1" t="n">
+      <c r="AY23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA23" s="1" t="n">
@@ -3544,7 +3620,7 @@
       <c r="BF23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL23" s="1" t="n">
+      <c r="BG23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM23" s="1" t="n">
@@ -3557,6 +3633,9 @@
         <v>0</v>
       </c>
       <c r="BP23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3568,43 +3647,43 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>36200</v>
+        <v>73</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="M24" s="1" t="n">
         <v>36200</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1" t="n">
+        <v>36200</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="1" t="n">
+      <c r="Z24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AD24" s="1" t="n">
+      <c r="AE24" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="AE24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH24" s="1" t="n">
-        <v>0</v>
+      <c r="AF24" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>0</v>
@@ -3618,8 +3697,8 @@
       <c r="AL24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN24" s="1" t="n">
-        <v>1</v>
+      <c r="AM24" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO24" s="1" t="n">
         <v>1</v>
@@ -3627,25 +3706,25 @@
       <c r="AP24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR24" s="1" t="n">
-        <v>0</v>
+      <c r="AQ24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT24" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="1" t="n">
         <v>0.5757</v>
       </c>
-      <c r="AW24" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ24" s="1" t="n">
+      <c r="AY24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA24" s="1" t="n">
@@ -3666,7 +3745,7 @@
       <c r="BF24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL24" s="1" t="n">
+      <c r="BG24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM24" s="1" t="n">
@@ -3679,6 +3758,9 @@
         <v>0</v>
       </c>
       <c r="BP24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3689,44 +3771,44 @@
       <c r="B25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>118</v>
+      <c r="C25" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>47300</v>
+        <v>73</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="M25" s="1" t="n">
         <v>47300</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1" t="n">
+        <v>47300</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="1" t="n">
+      <c r="Z25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="AD25" s="1" t="n">
+      <c r="AE25" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH25" s="1" t="n">
-        <v>0</v>
+      <c r="AF25" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI25" s="1" t="n">
         <v>0</v>
@@ -3740,8 +3822,8 @@
       <c r="AL25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN25" s="1" t="n">
-        <v>1</v>
+      <c r="AM25" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO25" s="1" t="n">
         <v>1</v>
@@ -3749,25 +3831,25 @@
       <c r="AP25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR25" s="1" t="n">
-        <v>0</v>
+      <c r="AQ25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT25" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="1" t="n">
         <v>0.612</v>
       </c>
-      <c r="AW25" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ25" s="1" t="n">
+      <c r="AY25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA25" s="1" t="n">
@@ -3788,7 +3870,7 @@
       <c r="BF25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL25" s="1" t="n">
+      <c r="BG25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM25" s="1" t="n">
@@ -3801,6 +3883,9 @@
         <v>0</v>
       </c>
       <c r="BP25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3811,44 +3896,44 @@
       <c r="B26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>120</v>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>61800</v>
+        <v>73</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="M26" s="1" t="n">
         <v>61800</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1" t="n">
+        <v>61800</v>
+      </c>
+      <c r="O26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="1" t="n">
+      <c r="Z26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="AD26" s="1" t="n">
+      <c r="AE26" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AE26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH26" s="1" t="n">
-        <v>0</v>
+      <c r="AF26" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>0</v>
@@ -3862,8 +3947,8 @@
       <c r="AL26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN26" s="1" t="n">
-        <v>1</v>
+      <c r="AM26" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO26" s="1" t="n">
         <v>1</v>
@@ -3871,25 +3956,25 @@
       <c r="AP26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR26" s="1" t="n">
-        <v>0</v>
+      <c r="AQ26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="1" t="n">
         <v>0.6506</v>
       </c>
-      <c r="AW26" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ26" s="1" t="n">
+      <c r="AY26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA26" s="1" t="n">
@@ -3910,7 +3995,7 @@
       <c r="BF26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL26" s="1" t="n">
+      <c r="BG26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM26" s="1" t="n">
@@ -3923,6 +4008,9 @@
         <v>0</v>
       </c>
       <c r="BP26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3934,43 +4022,43 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>104200</v>
+        <v>73</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="M27" s="1" t="n">
         <v>104200</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1" t="n">
+        <v>104200</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="1" t="n">
+      <c r="Z27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AD27" s="1" t="n">
+      <c r="AE27" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="AE27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH27" s="1" t="n">
-        <v>0</v>
+      <c r="AF27" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0</v>
@@ -3984,8 +4072,8 @@
       <c r="AL27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN27" s="1" t="n">
-        <v>1</v>
+      <c r="AM27" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO27" s="1" t="n">
         <v>1</v>
@@ -3993,25 +4081,25 @@
       <c r="AP27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR27" s="1" t="n">
-        <v>0</v>
+      <c r="AQ27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="1" t="n">
         <v>0.8914</v>
       </c>
-      <c r="AW27" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ27" s="1" t="n">
+      <c r="AY27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA27" s="1" t="n">
@@ -4032,7 +4120,7 @@
       <c r="BF27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL27" s="1" t="n">
+      <c r="BG27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM27" s="1" t="n">
@@ -4045,6 +4133,9 @@
         <v>0</v>
       </c>
       <c r="BP27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4055,44 +4146,44 @@
       <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>124</v>
+      <c r="C28" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>137600</v>
+        <v>73</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="M28" s="1" t="n">
         <v>137600</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1" t="n">
+        <v>137600</v>
+      </c>
+      <c r="O28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="1" t="n">
+      <c r="Z28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="AD28" s="1" t="n">
+      <c r="AE28" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="AE28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH28" s="1" t="n">
-        <v>0</v>
+      <c r="AF28" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI28" s="1" t="n">
         <v>0</v>
@@ -4106,8 +4197,8 @@
       <c r="AL28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN28" s="1" t="n">
-        <v>1</v>
+      <c r="AM28" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO28" s="1" t="n">
         <v>1</v>
@@ -4115,25 +4206,25 @@
       <c r="AP28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR28" s="1" t="n">
-        <v>0</v>
+      <c r="AQ28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="1" t="n">
         <v>0.9572</v>
       </c>
-      <c r="AW28" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ28" s="1" t="n">
+      <c r="AY28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA28" s="1" t="n">
@@ -4154,7 +4245,7 @@
       <c r="BF28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL28" s="1" t="n">
+      <c r="BG28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM28" s="1" t="n">
@@ -4167,6 +4258,9 @@
         <v>0</v>
       </c>
       <c r="BP28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4177,44 +4271,44 @@
       <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>126</v>
+      <c r="C29" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>181700</v>
+        <v>73</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="M29" s="1" t="n">
         <v>181700</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1" t="n">
+        <v>181700</v>
+      </c>
+      <c r="O29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="1" t="n">
+      <c r="Z29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="AD29" s="1" t="n">
+      <c r="AE29" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AE29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH29" s="1" t="n">
-        <v>0</v>
+      <c r="AF29" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>0</v>
@@ -4228,8 +4322,8 @@
       <c r="AL29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN29" s="1" t="n">
-        <v>1</v>
+      <c r="AM29" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO29" s="1" t="n">
         <v>1</v>
@@ -4237,25 +4331,25 @@
       <c r="AP29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR29" s="1" t="n">
-        <v>0</v>
+      <c r="AQ29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT29" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="1" t="n">
         <v>1.028</v>
       </c>
-      <c r="AW29" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ29" s="1" t="n">
+      <c r="AY29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA29" s="1" t="n">
@@ -4276,7 +4370,7 @@
       <c r="BF29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL29" s="1" t="n">
+      <c r="BG29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM29" s="1" t="n">
@@ -4289,6 +4383,9 @@
         <v>0</v>
       </c>
       <c r="BP29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4300,43 +4397,43 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>239900</v>
+        <v>73</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="M30" s="1" t="n">
         <v>239900</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1" t="n">
+        <v>239900</v>
+      </c>
+      <c r="O30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="1" t="n">
+      <c r="Z30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AD30" s="1" t="n">
+      <c r="AE30" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="AE30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH30" s="1" t="n">
-        <v>0</v>
+      <c r="AF30" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI30" s="1" t="n">
         <v>0</v>
@@ -4350,8 +4447,8 @@
       <c r="AL30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN30" s="1" t="n">
-        <v>1</v>
+      <c r="AM30" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO30" s="1" t="n">
         <v>1</v>
@@ -4359,25 +4456,25 @@
       <c r="AP30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR30" s="1" t="n">
-        <v>0</v>
+      <c r="AQ30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT30" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="1" t="n">
         <v>1.1039</v>
       </c>
-      <c r="AW30" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ30" s="1" t="n">
+      <c r="AY30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA30" s="1" t="n">
@@ -4398,7 +4495,7 @@
       <c r="BF30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL30" s="1" t="n">
+      <c r="BG30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM30" s="1" t="n">
@@ -4411,6 +4508,9 @@
         <v>0</v>
       </c>
       <c r="BP30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4422,43 +4522,43 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>316700</v>
+        <v>73</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="M31" s="1" t="n">
         <v>316700</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1" t="n">
+        <v>316700</v>
+      </c>
+      <c r="O31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="1" t="n">
+      <c r="Z31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="AD31" s="1" t="n">
+      <c r="AE31" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="AE31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH31" s="1" t="n">
-        <v>0</v>
+      <c r="AF31" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI31" s="1" t="n">
         <v>0</v>
@@ -4472,8 +4572,8 @@
       <c r="AL31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN31" s="1" t="n">
-        <v>1</v>
+      <c r="AM31" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO31" s="1" t="n">
         <v>1</v>
@@ -4481,25 +4581,25 @@
       <c r="AP31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR31" s="1" t="n">
-        <v>0</v>
+      <c r="AQ31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="1" t="n">
         <v>1.1855</v>
       </c>
-      <c r="AW31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ31" s="1" t="n">
+      <c r="AY31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA31" s="1" t="n">
@@ -4520,7 +4620,7 @@
       <c r="BF31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL31" s="1" t="n">
+      <c r="BG31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM31" s="1" t="n">
@@ -4533,6 +4633,9 @@
         <v>0</v>
       </c>
       <c r="BP31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4544,43 +4647,43 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>418200</v>
+        <v>73</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="M32" s="1" t="n">
         <v>418200</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1" t="n">
+        <v>418200</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="1" t="n">
+      <c r="Z32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="AD32" s="1" t="n">
+      <c r="AE32" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="AE32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH32" s="1" t="n">
-        <v>0</v>
+      <c r="AF32" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI32" s="1" t="n">
         <v>0</v>
@@ -4594,8 +4697,8 @@
       <c r="AL32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN32" s="1" t="n">
-        <v>1</v>
+      <c r="AM32" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO32" s="1" t="n">
         <v>1</v>
@@ -4603,25 +4706,25 @@
       <c r="AP32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR32" s="1" t="n">
-        <v>0</v>
+      <c r="AQ32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT32" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="1" t="n">
         <v>1.2731</v>
       </c>
-      <c r="AW32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ32" s="1" t="n">
+      <c r="AY32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA32" s="1" t="n">
@@ -4642,7 +4745,7 @@
       <c r="BF32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL32" s="1" t="n">
+      <c r="BG32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM32" s="1" t="n">
@@ -4655,6 +4758,9 @@
         <v>0</v>
       </c>
       <c r="BP32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4666,43 +4772,43 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>552200</v>
+        <v>73</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="M33" s="1" t="n">
         <v>552200</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1" t="n">
+        <v>552200</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="1" t="n">
+      <c r="Z33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="AD33" s="1" t="n">
+      <c r="AE33" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AE33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH33" s="1" t="n">
-        <v>0</v>
+      <c r="AF33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI33" s="1" t="n">
         <v>0</v>
@@ -4716,8 +4822,8 @@
       <c r="AL33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN33" s="1" t="n">
-        <v>1</v>
+      <c r="AM33" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO33" s="1" t="n">
         <v>1</v>
@@ -4725,25 +4831,25 @@
       <c r="AP33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR33" s="1" t="n">
-        <v>0</v>
+      <c r="AQ33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT33" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="1" t="n">
         <v>1.3672</v>
       </c>
-      <c r="AW33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ33" s="1" t="n">
+      <c r="AY33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA33" s="1" t="n">
@@ -4764,7 +4870,7 @@
       <c r="BF33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL33" s="1" t="n">
+      <c r="BG33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM33" s="1" t="n">
@@ -4777,6 +4883,9 @@
         <v>0</v>
       </c>
       <c r="BP33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,43 +4897,43 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>729100</v>
+        <v>73</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="M34" s="1" t="n">
         <v>729100</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1" t="n">
+        <v>729100</v>
+      </c>
+      <c r="O34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="1" t="n">
+      <c r="Z34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AD34" s="1" t="n">
+      <c r="AE34" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="AE34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH34" s="1" t="n">
-        <v>0</v>
+      <c r="AF34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI34" s="1" t="n">
         <v>0</v>
@@ -4838,8 +4947,8 @@
       <c r="AL34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN34" s="1" t="n">
-        <v>1</v>
+      <c r="AM34" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO34" s="1" t="n">
         <v>1</v>
@@ -4847,25 +4956,25 @@
       <c r="AP34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR34" s="1" t="n">
-        <v>0</v>
+      <c r="AQ34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="1" t="n">
         <v>1.4682</v>
       </c>
-      <c r="AW34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ34" s="1" t="n">
+      <c r="AY34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA34" s="1" t="n">
@@ -4886,7 +4995,7 @@
       <c r="BF34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL34" s="1" t="n">
+      <c r="BG34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM34" s="1" t="n">
@@ -4899,6 +5008,9 @@
         <v>0</v>
       </c>
       <c r="BP34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4910,43 +5022,43 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>962800</v>
+        <v>73</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="M35" s="1" t="n">
         <v>962800</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
+        <v>962800</v>
+      </c>
+      <c r="O35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="1" t="n">
+      <c r="Z35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="AD35" s="1" t="n">
+      <c r="AE35" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="AE35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH35" s="1" t="n">
-        <v>0</v>
+      <c r="AF35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI35" s="1" t="n">
         <v>0</v>
@@ -4960,8 +5072,8 @@
       <c r="AL35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN35" s="1" t="n">
-        <v>1</v>
+      <c r="AM35" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO35" s="1" t="n">
         <v>1</v>
@@ -4969,25 +5081,25 @@
       <c r="AP35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR35" s="1" t="n">
-        <v>0</v>
+      <c r="AQ35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="1" t="n">
         <v>1.5767</v>
       </c>
-      <c r="AW35" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ35" s="1" t="n">
+      <c r="AY35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA35" s="1" t="n">
@@ -5008,7 +5120,7 @@
       <c r="BF35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL35" s="1" t="n">
+      <c r="BG35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM35" s="1" t="n">
@@ -5021,6 +5133,9 @@
         <v>0</v>
       </c>
       <c r="BP35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5032,43 +5147,43 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>1271300</v>
+        <v>73</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="M36" s="1" t="n">
         <v>1271300</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1" t="n">
+        <v>1271300</v>
+      </c>
+      <c r="O36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="1" t="n">
+      <c r="Z36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="AD36" s="1" t="n">
+      <c r="AE36" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="AE36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH36" s="1" t="n">
-        <v>0</v>
+      <c r="AF36" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI36" s="1" t="n">
         <v>0</v>
@@ -5082,8 +5197,8 @@
       <c r="AL36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN36" s="1" t="n">
-        <v>1</v>
+      <c r="AM36" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO36" s="1" t="n">
         <v>1</v>
@@ -5091,25 +5206,25 @@
       <c r="AP36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR36" s="1" t="n">
-        <v>0</v>
+      <c r="AQ36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT36" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="1" t="n">
         <v>1.6932</v>
       </c>
-      <c r="AW36" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ36" s="1" t="n">
+      <c r="AY36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA36" s="1" t="n">
@@ -5130,7 +5245,7 @@
       <c r="BF36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL36" s="1" t="n">
+      <c r="BG36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM36" s="1" t="n">
@@ -5143,6 +5258,9 @@
         <v>0</v>
       </c>
       <c r="BP36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5154,43 +5272,43 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>1678600</v>
+        <v>73</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="M37" s="1" t="n">
         <v>1678600</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1" t="n">
+        <v>1678600</v>
+      </c>
+      <c r="O37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="1" t="n">
+      <c r="Z37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="AD37" s="1" t="n">
+      <c r="AE37" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="AE37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH37" s="1" t="n">
-        <v>0</v>
+      <c r="AF37" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI37" s="1" t="n">
         <v>0</v>
@@ -5204,8 +5322,8 @@
       <c r="AL37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN37" s="1" t="n">
-        <v>1</v>
+      <c r="AM37" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO37" s="1" t="n">
         <v>1</v>
@@ -5213,25 +5331,25 @@
       <c r="AP37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR37" s="1" t="n">
-        <v>0</v>
+      <c r="AQ37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT37" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="1" t="n">
         <v>1.8183</v>
       </c>
-      <c r="AW37" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ37" s="1" t="n">
+      <c r="AY37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA37" s="1" t="n">
@@ -5252,7 +5370,7 @@
       <c r="BF37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL37" s="1" t="n">
+      <c r="BG37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM37" s="1" t="n">
@@ -5265,6 +5383,9 @@
         <v>0</v>
       </c>
       <c r="BP37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5276,43 +5397,43 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>2216500</v>
+        <v>73</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="M38" s="1" t="n">
         <v>2216500</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1" t="n">
+        <v>2216500</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="1" t="n">
+      <c r="Z38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="AD38" s="1" t="n">
+      <c r="AE38" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="AE38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH38" s="1" t="n">
-        <v>0</v>
+      <c r="AF38" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI38" s="1" t="n">
         <v>0</v>
@@ -5326,8 +5447,8 @@
       <c r="AL38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN38" s="1" t="n">
-        <v>1</v>
+      <c r="AM38" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO38" s="1" t="n">
         <v>1</v>
@@ -5335,25 +5456,25 @@
       <c r="AP38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR38" s="1" t="n">
-        <v>0</v>
+      <c r="AQ38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT38" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="1" t="n">
         <v>1.9526</v>
       </c>
-      <c r="AW38" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ38" s="1" t="n">
+      <c r="AY38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA38" s="1" t="n">
@@ -5374,7 +5495,7 @@
       <c r="BF38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL38" s="1" t="n">
+      <c r="BG38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM38" s="1" t="n">
@@ -5387,6 +5508,9 @@
         <v>0</v>
       </c>
       <c r="BP38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5398,43 +5522,43 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>2926700</v>
+        <v>73</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="M39" s="1" t="n">
         <v>2926700</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1" t="n">
+        <v>2926700</v>
+      </c>
+      <c r="O39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1" t="n">
+      <c r="Z39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="AD39" s="1" t="n">
+      <c r="AE39" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="AE39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH39" s="1" t="n">
-        <v>0</v>
+      <c r="AF39" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI39" s="1" t="n">
         <v>0</v>
@@ -5448,8 +5572,8 @@
       <c r="AL39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN39" s="1" t="n">
-        <v>1</v>
+      <c r="AM39" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO39" s="1" t="n">
         <v>1</v>
@@ -5457,25 +5581,25 @@
       <c r="AP39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR39" s="1" t="n">
-        <v>0</v>
+      <c r="AQ39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT39" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="AW39" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ39" s="1" t="n">
+      <c r="AY39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA39" s="1" t="n">
@@ -5496,7 +5620,7 @@
       <c r="BF39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL39" s="1" t="n">
+      <c r="BG39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM39" s="1" t="n">
@@ -5509,6 +5633,9 @@
         <v>0</v>
       </c>
       <c r="BP39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5520,43 +5647,43 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>3864500</v>
+        <v>73</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="M40" s="1" t="n">
         <v>3864500</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="1" t="n">
+        <v>3864500</v>
+      </c>
+      <c r="O40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="1" t="n">
+      <c r="Z40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="AD40" s="1" t="n">
+      <c r="AE40" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="AE40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH40" s="1" t="n">
-        <v>0</v>
+      <c r="AF40" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI40" s="1" t="n">
         <v>0</v>
@@ -5570,8 +5697,8 @@
       <c r="AL40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN40" s="1" t="n">
-        <v>1</v>
+      <c r="AM40" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO40" s="1" t="n">
         <v>1</v>
@@ -5579,25 +5706,25 @@
       <c r="AP40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR40" s="1" t="n">
-        <v>0</v>
+      <c r="AQ40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT40" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="AW40" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ40" s="1" t="n">
+      <c r="AY40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA40" s="1" t="n">
@@ -5618,7 +5745,7 @@
       <c r="BF40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL40" s="1" t="n">
+      <c r="BG40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM40" s="1" t="n">
@@ -5631,6 +5758,9 @@
         <v>0</v>
       </c>
       <c r="BP40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5642,43 +5772,43 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>5102700</v>
+        <v>73</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="M41" s="1" t="n">
         <v>5102700</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1" t="n">
+        <v>5102700</v>
+      </c>
+      <c r="O41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="1" t="n">
+      <c r="Z41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="AD41" s="1" t="n">
+      <c r="AE41" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="AE41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH41" s="1" t="n">
-        <v>0</v>
+      <c r="AF41" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI41" s="1" t="n">
         <v>0</v>
@@ -5692,8 +5822,8 @@
       <c r="AL41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN41" s="1" t="n">
-        <v>1</v>
+      <c r="AM41" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO41" s="1" t="n">
         <v>1</v>
@@ -5701,25 +5831,25 @@
       <c r="AP41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR41" s="1" t="n">
-        <v>0</v>
+      <c r="AQ41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AS41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AT41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AU41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="1" t="n">
         <v>2.15</v>
       </c>
-      <c r="AW41" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AX41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ41" s="1" t="n">
+      <c r="AY41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BA41" s="1" t="n">
@@ -5740,7 +5870,7 @@
       <c r="BF41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL41" s="1" t="n">
+      <c r="BG41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM41" s="1" t="n">
@@ -5753,6 +5883,9 @@
         <v>0</v>
       </c>
       <c r="BP41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
